--- a/config_2.9/year_xsfl_config.xlsx
+++ b/config_2.9/year_xsfl_config.xlsx
@@ -40,9 +40,6 @@
     <t>12点-14点</t>
   </si>
   <si>
-    <t>20点-22点</t>
-  </si>
-  <si>
     <t>总的结束时间</t>
   </si>
   <si>
@@ -50,6 +47,32 @@
   </si>
   <si>
     <t>shop_id|礼包id</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点-22点</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -156,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,6 +211,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,12 +495,14 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="39.625" customWidth="1"/>
     <col min="7" max="7" width="61" style="7" customWidth="1"/>
@@ -541,13 +569,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>72000</v>
+        <v>64800</v>
       </c>
       <c r="C4" s="9">
-        <v>79200</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
+        <v>64800</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
@@ -563,7 +591,7 @@
         <v>1614009599</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
@@ -590,10 +618,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>

--- a/config_2.9/year_xsfl_config.xlsx
+++ b/config_2.9/year_xsfl_config.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +572,7 @@
         <v>64800</v>
       </c>
       <c r="C4" s="9">
-        <v>64800</v>
+        <v>79200</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>9</v>
